--- a/documentacion/Control-Documentos/Control GESPRO.xlsx
+++ b/documentacion/Control-Documentos/Control GESPRO.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="125">
   <si>
     <t>Sección</t>
   </si>
@@ -177,14 +177,236 @@
     <t>x</t>
   </si>
   <si>
-    <t>Estructura</t>
+    <t>Imágenes</t>
+  </si>
+  <si>
+    <t>Referencias</t>
+  </si>
+  <si>
+    <t>pautas</t>
+  </si>
+  <si>
+    <t>clima</t>
+  </si>
+  <si>
+    <t>recomendaciones</t>
+  </si>
+  <si>
+    <t>inclusión</t>
+  </si>
+  <si>
+    <t>emociones</t>
+  </si>
+  <si>
+    <t>interculturalidad</t>
+  </si>
+  <si>
+    <t>funciones</t>
+  </si>
+  <si>
+    <t>componentes</t>
+  </si>
+  <si>
+    <t>documentos</t>
+  </si>
+  <si>
+    <t>formativa</t>
+  </si>
+  <si>
+    <t>demostracion</t>
+  </si>
+  <si>
+    <t>proyectos</t>
+  </si>
+  <si>
+    <t>pruebas</t>
+  </si>
+  <si>
+    <t>tareas</t>
+  </si>
+  <si>
+    <t>trabajoCot</t>
+  </si>
+  <si>
+    <t>asistencia</t>
+  </si>
+  <si>
+    <t>intrumentos</t>
+  </si>
+  <si>
+    <t>tecnicas</t>
+  </si>
+  <si>
+    <t>sumativa</t>
+  </si>
+  <si>
+    <t>diagnostica</t>
+  </si>
+  <si>
+    <t>educatico</t>
+  </si>
+  <si>
+    <t>edu_preescolar</t>
+  </si>
+  <si>
+    <t>edu_primaria</t>
+  </si>
+  <si>
+    <t>edu_media</t>
+  </si>
+  <si>
+    <t>edu_intercultural</t>
+  </si>
+  <si>
+    <t>edu_jovenes</t>
+  </si>
+  <si>
+    <t>feria_cientifica</t>
+  </si>
+  <si>
+    <t>bandera_azul</t>
+  </si>
+  <si>
+    <t>Ref_Home</t>
+  </si>
+  <si>
+    <t>Ref_portada</t>
+  </si>
+  <si>
+    <t>img_portada</t>
+  </si>
+  <si>
+    <t>img_home</t>
+  </si>
+  <si>
+    <t>img_apoyos-aula</t>
+  </si>
+  <si>
+    <t>img_apoyos-evaluacion</t>
+  </si>
+  <si>
+    <t>img_recursos-didacticos</t>
+  </si>
+  <si>
+    <t>img_documentos-educativos</t>
+  </si>
+  <si>
+    <t>img_desarrollo-profesional</t>
+  </si>
+  <si>
+    <t>img_apoyo-planeamiento</t>
+  </si>
+  <si>
+    <t>ref_recursos-didacticos</t>
+  </si>
+  <si>
+    <t>ref_apoyos-evaluacion</t>
+  </si>
+  <si>
+    <t>videos_pruebas</t>
+  </si>
+  <si>
+    <t>videos_valoracion</t>
+  </si>
+  <si>
+    <t>video_ministra</t>
+  </si>
+  <si>
+    <t>video_uso_herramienta</t>
+  </si>
+  <si>
+    <t>politica_educa</t>
+  </si>
+  <si>
+    <t>politica_curricular</t>
+  </si>
+  <si>
+    <t>programas</t>
+  </si>
+  <si>
+    <t>reglamento_evaluacion</t>
+  </si>
+  <si>
+    <t>perfil_estudiante</t>
+  </si>
+  <si>
+    <t>faro</t>
+  </si>
+  <si>
+    <t>cursos_virtuales</t>
+  </si>
+  <si>
+    <t>recursos_digitales</t>
+  </si>
+  <si>
+    <t>videoteca</t>
+  </si>
+  <si>
+    <t>referencias</t>
+  </si>
+  <si>
+    <t>otras_ofertas</t>
+  </si>
+  <si>
+    <t>definicion</t>
+  </si>
+  <si>
+    <t>orientacion</t>
+  </si>
+  <si>
+    <t>plantillas</t>
+  </si>
+  <si>
+    <t>ejempos</t>
+  </si>
+  <si>
+    <t>video_planeamiento</t>
+  </si>
+  <si>
+    <t>video_unidocentes</t>
+  </si>
+  <si>
+    <t>Ref_apoyos-aula</t>
+  </si>
+  <si>
+    <t>lineam</t>
+  </si>
+  <si>
+    <t>planea</t>
+  </si>
+  <si>
+    <t>preesc</t>
+  </si>
+  <si>
+    <t>ref_apoyo_planeam</t>
+  </si>
+  <si>
+    <t>ref_desar_profes</t>
+  </si>
+  <si>
+    <t>ref_docum_educ</t>
+  </si>
+  <si>
+    <t>jov_adul</t>
+  </si>
+  <si>
+    <t>inter_prim</t>
+  </si>
+  <si>
+    <t>inter_sec</t>
+  </si>
+  <si>
+    <t>sec</t>
+  </si>
+  <si>
+    <t>prim</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,8 +435,64 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,8 +559,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -408,11 +728,120 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -450,52 +879,7 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -528,12 +912,119 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCC99FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -811,7 +1302,7 @@
   <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -823,52 +1314,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="L1" s="20" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="I2" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="37" t="s">
+      <c r="J2" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="38" t="s">
+      <c r="K2" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="37"/>
+      <c r="L2" s="22"/>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="25"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="29"/>
     </row>
     <row r="4" spans="1:12" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -909,10 +1400,10 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="35" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -921,8 +1412,8 @@
       <c r="D5" s="9">
         <v>22</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
       <c r="G5" s="1" t="s">
         <v>49</v>
       </c>
@@ -937,16 +1428,16 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="21"/>
-      <c r="B6" s="27"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="10">
         <v>18</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
       <c r="G6" s="1" t="s">
         <v>49</v>
       </c>
@@ -961,16 +1452,16 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="21"/>
-      <c r="B7" s="27"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="10">
         <v>5</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
       <c r="G7" s="1" t="s">
         <v>49</v>
       </c>
@@ -985,16 +1476,16 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="21"/>
-      <c r="B8" s="27"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="10">
         <v>16</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
       <c r="G8" s="1" t="s">
         <v>49</v>
       </c>
@@ -1009,16 +1500,16 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="21"/>
-      <c r="B9" s="27"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="10">
         <v>20</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
       <c r="G9" s="1" t="s">
         <v>49</v>
       </c>
@@ -1033,16 +1524,16 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="21"/>
-      <c r="B10" s="27"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="10">
         <v>24</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="1" t="s">
         <v>49</v>
       </c>
@@ -1057,16 +1548,16 @@
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="21"/>
-      <c r="B11" s="27"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="10">
         <v>26</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
       <c r="G11" s="1" t="s">
         <v>49</v>
       </c>
@@ -1081,16 +1572,16 @@
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="21"/>
-      <c r="B12" s="27"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="10">
         <v>1</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
       <c r="G12" s="1" t="s">
         <v>49</v>
       </c>
@@ -1105,16 +1596,16 @@
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="21"/>
-      <c r="B13" s="27"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="10">
         <v>10</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
       <c r="G13" s="1" t="s">
         <v>49</v>
       </c>
@@ -1129,18 +1620,18 @@
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="21"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="18" t="s">
+      <c r="A14" s="25"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="30" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="9">
         <v>31</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="13" t="s">
         <v>7</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -1157,13 +1648,13 @@
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="21"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="19"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="31"/>
       <c r="D15" s="10">
         <v>31</v>
       </c>
-      <c r="E15" s="16"/>
+      <c r="E15" s="38"/>
       <c r="F15" s="12" t="s">
         <v>14</v>
       </c>
@@ -1181,13 +1672,13 @@
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="21"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="19"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="31"/>
       <c r="D16" s="10">
         <v>31</v>
       </c>
-      <c r="E16" s="17"/>
+      <c r="E16" s="34"/>
       <c r="F16" s="12" t="s">
         <v>16</v>
       </c>
@@ -1205,13 +1696,13 @@
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="21"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="19"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="31"/>
       <c r="D17" s="10">
         <v>31</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="33" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="11" t="s">
@@ -1231,13 +1722,13 @@
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="21"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="19"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="31"/>
       <c r="D18" s="10">
         <v>31</v>
       </c>
-      <c r="E18" s="16"/>
+      <c r="E18" s="38"/>
       <c r="F18" s="12" t="s">
         <v>14</v>
       </c>
@@ -1255,13 +1746,13 @@
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="21"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="13"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="32"/>
       <c r="D19" s="10">
         <v>31</v>
       </c>
-      <c r="E19" s="17"/>
+      <c r="E19" s="34"/>
       <c r="F19" s="12" t="s">
         <v>16</v>
       </c>
@@ -1279,9 +1770,9 @@
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="21"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="18" t="s">
+      <c r="A20" s="25"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="30" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="9">
@@ -1305,9 +1796,9 @@
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="21"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="19"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="31"/>
       <c r="D21" s="10">
         <v>29</v>
       </c>
@@ -1329,8 +1820,8 @@
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="21"/>
-      <c r="B22" s="27"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="36"/>
       <c r="C22" s="7" t="s">
         <v>19</v>
       </c>
@@ -1353,8 +1844,8 @@
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="22"/>
-      <c r="B23" s="28"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="37"/>
       <c r="C23" s="8" t="s">
         <v>16</v>
       </c>
@@ -1377,18 +1868,18 @@
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="29"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
     </row>
     <row r="25" spans="1:12" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
@@ -1429,10 +1920,10 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="97.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="35" t="s">
         <v>48</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -1457,16 +1948,16 @@
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="21"/>
-      <c r="B27" s="27"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="36"/>
       <c r="C27" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D27" s="9">
         <v>23</v>
       </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
       <c r="G27" s="1" t="s">
         <v>49</v>
       </c>
@@ -1481,16 +1972,16 @@
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="21"/>
-      <c r="B28" s="27"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="36"/>
       <c r="C28" s="8" t="s">
         <v>6</v>
       </c>
       <c r="D28" s="10">
         <v>19</v>
       </c>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
       <c r="G28" s="1" t="s">
         <v>49</v>
       </c>
@@ -1505,16 +1996,16 @@
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="21"/>
-      <c r="B29" s="27"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="36"/>
       <c r="C29" s="8" t="s">
         <v>39</v>
       </c>
       <c r="D29" s="10">
         <v>7</v>
       </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
       <c r="G29" s="1" t="s">
         <v>49</v>
       </c>
@@ -1529,16 +2020,16 @@
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="21"/>
-      <c r="B30" s="27"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="36"/>
       <c r="C30" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D30" s="10">
         <v>6</v>
       </c>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
       <c r="G30" s="1" t="s">
         <v>49</v>
       </c>
@@ -1553,16 +2044,16 @@
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="21"/>
-      <c r="B31" s="27"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="36"/>
       <c r="C31" s="8" t="s">
         <v>40</v>
       </c>
       <c r="D31" s="10">
         <v>12</v>
       </c>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
       <c r="G31" s="1" t="s">
         <v>49</v>
       </c>
@@ -1577,16 +2068,16 @@
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="1:12" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="21"/>
-      <c r="B32" s="27"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="36"/>
       <c r="C32" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="10">
         <v>17</v>
       </c>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
       <c r="G32" s="1" t="s">
         <v>49</v>
       </c>
@@ -1601,16 +2092,16 @@
       <c r="L32" s="1"/>
     </row>
     <row r="33" spans="1:12" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="21"/>
-      <c r="B33" s="27"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="36"/>
       <c r="C33" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="10">
         <v>21</v>
       </c>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
       <c r="G33" s="1" t="s">
         <v>49</v>
       </c>
@@ -1625,16 +2116,16 @@
       <c r="L33" s="1"/>
     </row>
     <row r="34" spans="1:12" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="21"/>
-      <c r="B34" s="27"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="36"/>
       <c r="C34" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D34" s="10">
         <v>25</v>
       </c>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
       <c r="G34" s="1" t="s">
         <v>49</v>
       </c>
@@ -1649,16 +2140,16 @@
       <c r="L34" s="1"/>
     </row>
     <row r="35" spans="1:12" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="21"/>
-      <c r="B35" s="27"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="36"/>
       <c r="C35" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D35" s="10">
         <v>27</v>
       </c>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
       <c r="G35" s="1" t="s">
         <v>49</v>
       </c>
@@ -1673,16 +2164,16 @@
       <c r="L35" s="1"/>
     </row>
     <row r="36" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="21"/>
-      <c r="B36" s="27"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="36"/>
       <c r="C36" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="34" t="s">
+      <c r="D36" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
       <c r="G36" s="1" t="s">
         <v>49</v>
       </c>
@@ -1697,16 +2188,16 @@
       <c r="L36" s="1"/>
     </row>
     <row r="37" spans="1:12" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="21"/>
-      <c r="B37" s="27"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="36"/>
       <c r="C37" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D37" s="10">
         <v>11</v>
       </c>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
       <c r="G37" s="1" t="s">
         <v>49</v>
       </c>
@@ -1721,16 +2212,16 @@
       <c r="L37" s="1"/>
     </row>
     <row r="38" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="21"/>
-      <c r="B38" s="27"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="36"/>
       <c r="C38" s="8" t="s">
         <v>41</v>
       </c>
       <c r="D38" s="10">
         <v>14</v>
       </c>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
       <c r="G38" s="1" t="s">
         <v>49</v>
       </c>
@@ -1745,16 +2236,16 @@
       <c r="L38" s="1"/>
     </row>
     <row r="39" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="21"/>
-      <c r="B39" s="27"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="36"/>
       <c r="C39" s="8" t="s">
         <v>42</v>
       </c>
       <c r="D39" s="10">
         <v>9</v>
       </c>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
       <c r="G39" s="1" t="s">
         <v>49</v>
       </c>
@@ -1769,18 +2260,18 @@
       <c r="L39" s="1"/>
     </row>
     <row r="40" spans="1:12" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="21"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="18" t="s">
+      <c r="A40" s="25"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="30" t="s">
         <v>14</v>
       </c>
       <c r="D40" s="9">
         <v>32</v>
       </c>
-      <c r="E40" s="15" t="s">
+      <c r="E40" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="14"/>
+      <c r="F40" s="13"/>
       <c r="G40" s="1" t="s">
         <v>49</v>
       </c>
@@ -1795,13 +2286,13 @@
       <c r="L40" s="1"/>
     </row>
     <row r="41" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="21"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="19"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="31"/>
       <c r="D41" s="10">
         <v>32</v>
       </c>
-      <c r="E41" s="17"/>
+      <c r="E41" s="34"/>
       <c r="F41" s="12"/>
       <c r="G41" s="1" t="s">
         <v>49</v>
@@ -1817,13 +2308,13 @@
       <c r="L41" s="1"/>
     </row>
     <row r="42" spans="1:12" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="21"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="19"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="31"/>
       <c r="D42" s="10">
         <v>32</v>
       </c>
-      <c r="E42" s="15" t="s">
+      <c r="E42" s="33" t="s">
         <v>17</v>
       </c>
       <c r="F42" s="11"/>
@@ -1841,13 +2332,13 @@
       <c r="L42" s="1"/>
     </row>
     <row r="43" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="21"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="13"/>
+      <c r="A43" s="25"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="32"/>
       <c r="D43" s="10">
         <v>32</v>
       </c>
-      <c r="E43" s="17"/>
+      <c r="E43" s="34"/>
       <c r="F43" s="12"/>
       <c r="G43" s="1" t="s">
         <v>49</v>
@@ -1863,9 +2354,9 @@
       <c r="L43" s="1"/>
     </row>
     <row r="44" spans="1:12" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="21"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="18" t="s">
+      <c r="A44" s="25"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="30" t="s">
         <v>18</v>
       </c>
       <c r="D44" s="9">
@@ -1889,9 +2380,9 @@
       <c r="L44" s="1"/>
     </row>
     <row r="45" spans="1:12" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="21"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="19"/>
+      <c r="A45" s="25"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="31"/>
       <c r="D45" s="10">
         <v>30</v>
       </c>
@@ -1913,9 +2404,9 @@
       <c r="L45" s="1"/>
     </row>
     <row r="46" spans="1:12" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="21"/>
-      <c r="B46" s="27"/>
-      <c r="C46" s="18" t="s">
+      <c r="A46" s="25"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="30" t="s">
         <v>19</v>
       </c>
       <c r="D46" s="9">
@@ -1939,9 +2430,9 @@
       <c r="L46" s="1"/>
     </row>
     <row r="47" spans="1:12" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="21"/>
-      <c r="B47" s="27"/>
-      <c r="C47" s="19"/>
+      <c r="A47" s="25"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="31"/>
       <c r="D47" s="10">
         <v>35</v>
       </c>
@@ -1963,8 +2454,8 @@
       <c r="L47" s="1"/>
     </row>
     <row r="48" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="21"/>
-      <c r="B48" s="27"/>
+      <c r="A48" s="25"/>
+      <c r="B48" s="36"/>
       <c r="C48" s="8" t="s">
         <v>16</v>
       </c>
@@ -1987,8 +2478,8 @@
       <c r="L48" s="1"/>
     </row>
     <row r="49" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="21"/>
-      <c r="B49" s="27"/>
+      <c r="A49" s="25"/>
+      <c r="B49" s="36"/>
       <c r="C49" s="8" t="s">
         <v>45</v>
       </c>
@@ -2011,8 +2502,8 @@
       <c r="L49" s="1"/>
     </row>
     <row r="50" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="22"/>
-      <c r="B50" s="28"/>
+      <c r="A50" s="26"/>
+      <c r="B50" s="37"/>
       <c r="C50" s="8" t="s">
         <v>46</v>
       </c>
@@ -2058,18 +2549,490 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="27.77734375" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="40" t="s">
         <v>50</v>
       </c>
+      <c r="B2" s="79" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="73" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="45" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="46" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="60" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="67" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="74" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="80" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="40"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="40" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="41" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="78" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="78" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="72" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="72" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="58" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="56"/>
+      <c r="C19" s="58" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="56"/>
+      <c r="C20" s="58" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="56"/>
+      <c r="C21" s="58" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="56"/>
+      <c r="C22" s="58" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" s="43" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="57"/>
+      <c r="C23" s="58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="59" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="53"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="59" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="53"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="59" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="53"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="53"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="59" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="53"/>
+      <c r="C29" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="59" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="53"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="53"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="59" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="53"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="59" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="53"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="59" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="53"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="59" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="53"/>
+      <c r="C35" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="51"/>
+    </row>
+    <row r="36" spans="2:4" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="53"/>
+      <c r="C36" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="51"/>
+    </row>
+    <row r="37" spans="2:4" s="44" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="54"/>
+      <c r="C37" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" s="51"/>
+    </row>
+    <row r="38" spans="2:4" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="62" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="61" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="87"/>
+      <c r="C39" s="61" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="87"/>
+      <c r="C40" s="61" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="87"/>
+      <c r="C41" s="61" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="87"/>
+      <c r="C42" s="61" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="87"/>
+      <c r="C43" s="61" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="87"/>
+      <c r="C44" s="61" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="88"/>
+      <c r="C45" s="62" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="64" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46" s="63" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="65"/>
+      <c r="C47" s="63" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="65"/>
+      <c r="C48" s="63" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="65"/>
+      <c r="C49" s="63" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="65"/>
+      <c r="C50" s="63" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="66"/>
+      <c r="C51" s="63" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="68" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" s="69" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="70"/>
+      <c r="C53" s="69" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="70"/>
+      <c r="C54" s="69" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="70"/>
+      <c r="C55" s="69" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="71"/>
+      <c r="C56" s="69" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="75" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" s="80" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="75"/>
+      <c r="C58" s="82" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B59" s="76"/>
+      <c r="C59" s="84" t="s">
+        <v>109</v>
+      </c>
+      <c r="D59" s="82" t="s">
+        <v>116</v>
+      </c>
+      <c r="E59" s="81" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B60" s="76"/>
+      <c r="C60" s="85"/>
+      <c r="D60" s="83"/>
+      <c r="E60" s="81" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B61" s="76"/>
+      <c r="C61" s="85"/>
+      <c r="D61" s="82" t="s">
+        <v>124</v>
+      </c>
+      <c r="E61" s="81" t="s">
+        <v>114</v>
+      </c>
+      <c r="F61">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B62" s="76"/>
+      <c r="C62" s="85"/>
+      <c r="D62" s="83"/>
+      <c r="E62" s="81" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B63" s="76"/>
+      <c r="C63" s="85"/>
+      <c r="D63" s="82" t="s">
+        <v>123</v>
+      </c>
+      <c r="E63" s="81" t="s">
+        <v>114</v>
+      </c>
+      <c r="F63">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B64" s="76"/>
+      <c r="C64" s="85"/>
+      <c r="D64" s="83"/>
+      <c r="E64" s="81" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B65" s="76"/>
+      <c r="C65" s="85"/>
+      <c r="D65" s="82" t="s">
+        <v>120</v>
+      </c>
+      <c r="E65" s="80"/>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B66" s="76"/>
+      <c r="C66" s="85"/>
+      <c r="D66" s="83"/>
+      <c r="E66" s="80"/>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B67" s="76"/>
+      <c r="C67" s="85"/>
+      <c r="D67" s="82" t="s">
+        <v>121</v>
+      </c>
+      <c r="E67" s="80"/>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B68" s="76"/>
+      <c r="C68" s="85"/>
+      <c r="D68" s="83"/>
+      <c r="E68" s="89"/>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B69" s="76"/>
+      <c r="C69" s="85"/>
+      <c r="D69" s="82" t="s">
+        <v>122</v>
+      </c>
+      <c r="E69" s="80"/>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B70" s="76"/>
+      <c r="C70" s="86"/>
+      <c r="D70" s="83"/>
+      <c r="E70" s="77"/>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B71" s="76"/>
+      <c r="C71" s="83" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B72" s="76"/>
+      <c r="C72" s="80" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B73" s="76"/>
+      <c r="C73" s="80" t="s">
+        <v>112</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C59:C70"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>